--- a/df_log_20250113.xlsx
+++ b/df_log_20250113.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506CF66-B103-41AD-AD50-940027A43D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22149" windowHeight="9103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$211</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hRAWffmSmALYC8h9CRFwTMz70qR1uBa86i0yCM8bhq8="/>
@@ -2465,26 +2475,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2493,11 +2514,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2511,39 +2538,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2733,25 +2760,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="18.57"/>
-    <col customWidth="1" min="13" max="26" width="8.71"/>
+    <col min="1" max="11" width="8.69140625" customWidth="1"/>
+    <col min="12" max="12" width="18.53515625" customWidth="1"/>
+    <col min="13" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -2824,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>26</v>
@@ -2856,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2879,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>32</v>
@@ -2888,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>26</v>
@@ -2920,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
@@ -2952,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>48</v>
       </c>
       <c r="K7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>49</v>
@@ -2984,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
@@ -3016,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3039,7 +3068,7 @@
         <v>48</v>
       </c>
       <c r="K9" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>58</v>
@@ -3048,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +3103,7 @@
         <v>63</v>
       </c>
       <c r="K10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>64</v>
@@ -3083,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -3109,7 +3138,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>70</v>
@@ -3118,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -3144,7 +3173,7 @@
         <v>74</v>
       </c>
       <c r="K12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>75</v>
@@ -3153,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -3179,7 +3208,7 @@
         <v>74</v>
       </c>
       <c r="K13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>80</v>
@@ -3188,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -3211,7 +3240,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>49</v>
@@ -3220,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -3246,7 +3275,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>64</v>
@@ -3255,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -3281,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="K16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>64</v>
@@ -3290,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>26</v>
@@ -3325,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -3351,7 +3380,7 @@
         <v>48</v>
       </c>
       <c r="K18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>64</v>
@@ -3360,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>48</v>
       </c>
       <c r="K19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>64</v>
@@ -3395,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -3424,16 +3453,16 @@
         <v>48</v>
       </c>
       <c r="K20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L20" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>110</v>
       </c>
@@ -3456,7 +3485,7 @@
         <v>48</v>
       </c>
       <c r="K21" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>64</v>
@@ -3465,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3494,7 +3523,7 @@
         <v>48</v>
       </c>
       <c r="K22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>64</v>
@@ -3503,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>120</v>
       </c>
@@ -3532,7 +3561,7 @@
         <v>48</v>
       </c>
       <c r="K23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>64</v>
@@ -3541,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>125</v>
       </c>
@@ -3567,7 +3596,7 @@
         <v>63</v>
       </c>
       <c r="K24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>64</v>
@@ -3576,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>128</v>
       </c>
@@ -3605,7 +3634,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>64</v>
@@ -3614,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>133</v>
       </c>
@@ -3640,7 +3669,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>137</v>
@@ -3649,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>138</v>
       </c>
@@ -3672,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="K27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>64</v>
@@ -3681,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>141</v>
       </c>
@@ -3707,7 +3736,7 @@
         <v>69</v>
       </c>
       <c r="K28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>64</v>
@@ -3716,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>145</v>
       </c>
@@ -3742,7 +3771,7 @@
         <v>63</v>
       </c>
       <c r="K29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>64</v>
@@ -3751,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>148</v>
       </c>
@@ -3777,7 +3806,7 @@
         <v>63</v>
       </c>
       <c r="K30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>64</v>
@@ -3786,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -3812,7 +3841,7 @@
         <v>54</v>
       </c>
       <c r="K31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>64</v>
@@ -3821,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>155</v>
       </c>
@@ -3847,7 +3876,7 @@
         <v>74</v>
       </c>
       <c r="K32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>64</v>
@@ -3856,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>158</v>
       </c>
@@ -3882,7 +3911,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>64</v>
@@ -3891,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>161</v>
       </c>
@@ -3914,7 +3943,7 @@
         <v>164</v>
       </c>
       <c r="K34" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>58</v>
@@ -3923,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>165</v>
       </c>
@@ -3949,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>64</v>
@@ -3958,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>168</v>
       </c>
@@ -3984,7 +4013,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>64</v>
@@ -3993,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>171</v>
       </c>
@@ -4022,7 +4051,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>64</v>
@@ -4031,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>175</v>
       </c>
@@ -4060,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="K38" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>64</v>
@@ -4069,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>178</v>
       </c>
@@ -4098,7 +4127,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>64</v>
@@ -4107,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -4136,7 +4165,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>64</v>
@@ -4145,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -4168,7 +4197,7 @@
         <v>19</v>
       </c>
       <c r="K41" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>32</v>
@@ -4177,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>188</v>
       </c>
@@ -4206,7 +4235,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>64</v>
@@ -4215,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -4244,7 +4273,7 @@
         <v>197</v>
       </c>
       <c r="K43" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>64</v>
@@ -4253,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
@@ -4279,16 +4308,16 @@
         <v>19</v>
       </c>
       <c r="K44" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -4317,7 +4346,7 @@
         <v>197</v>
       </c>
       <c r="K45" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>64</v>
@@ -4326,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -4352,7 +4381,7 @@
         <v>208</v>
       </c>
       <c r="K46" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>64</v>
@@ -4361,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>209</v>
       </c>
@@ -4387,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>64</v>
@@ -4396,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>212</v>
       </c>
@@ -4422,16 +4451,16 @@
         <v>19</v>
       </c>
       <c r="K48" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L48" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
@@ -4457,7 +4486,7 @@
         <v>48</v>
       </c>
       <c r="K49" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>64</v>
@@ -4466,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>218</v>
       </c>
@@ -4492,7 +4521,7 @@
         <v>19</v>
       </c>
       <c r="K50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>64</v>
@@ -4501,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -4530,7 +4559,7 @@
         <v>19</v>
       </c>
       <c r="K51" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>64</v>
@@ -4539,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -4568,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="K52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>64</v>
@@ -4577,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
@@ -4606,7 +4635,7 @@
         <v>19</v>
       </c>
       <c r="K53" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>64</v>
@@ -4615,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>233</v>
       </c>
@@ -4644,7 +4673,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>64</v>
@@ -4653,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -4682,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="K55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>64</v>
@@ -4691,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>239</v>
       </c>
@@ -4720,7 +4749,7 @@
         <v>54</v>
       </c>
       <c r="K56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>64</v>
@@ -4729,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>243</v>
       </c>
@@ -4755,7 +4784,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>64</v>
@@ -4764,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>246</v>
       </c>
@@ -4793,16 +4822,16 @@
         <v>251</v>
       </c>
       <c r="K58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L58" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>252</v>
       </c>
@@ -4828,7 +4857,7 @@
         <v>48</v>
       </c>
       <c r="K59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>64</v>
@@ -4837,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>255</v>
       </c>
@@ -4863,7 +4892,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>64</v>
@@ -4872,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>258</v>
       </c>
@@ -4898,7 +4927,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>64</v>
@@ -4907,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>261</v>
       </c>
@@ -4936,7 +4965,7 @@
         <v>197</v>
       </c>
       <c r="K62" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>64</v>
@@ -4945,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>264</v>
       </c>
@@ -4968,7 +4997,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>64</v>
@@ -4977,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>268</v>
       </c>
@@ -5006,16 +5035,16 @@
         <v>54</v>
       </c>
       <c r="K64" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L64" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>273</v>
       </c>
@@ -5044,7 +5073,7 @@
         <v>197</v>
       </c>
       <c r="K65" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>64</v>
@@ -5053,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>276</v>
       </c>
@@ -5082,7 +5111,7 @@
         <v>281</v>
       </c>
       <c r="K66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>64</v>
@@ -5091,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>282</v>
       </c>
@@ -5120,7 +5149,7 @@
         <v>197</v>
       </c>
       <c r="K67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>64</v>
@@ -5129,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>285</v>
       </c>
@@ -5155,7 +5184,7 @@
         <v>48</v>
       </c>
       <c r="K68" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>64</v>
@@ -5164,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
@@ -5190,7 +5219,7 @@
         <v>31</v>
       </c>
       <c r="K69" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>64</v>
@@ -5199,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>291</v>
       </c>
@@ -5225,7 +5254,7 @@
         <v>19</v>
       </c>
       <c r="K70" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>64</v>
@@ -5234,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>294</v>
       </c>
@@ -5260,7 +5289,7 @@
         <v>31</v>
       </c>
       <c r="K71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>64</v>
@@ -5269,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>297</v>
       </c>
@@ -5295,7 +5324,7 @@
         <v>69</v>
       </c>
       <c r="K72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>64</v>
@@ -5304,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5330,7 +5359,7 @@
         <v>31</v>
       </c>
       <c r="K73" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>64</v>
@@ -5339,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>303</v>
       </c>
@@ -5365,7 +5394,7 @@
         <v>208</v>
       </c>
       <c r="K74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>64</v>
@@ -5374,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>306</v>
       </c>
@@ -5400,7 +5429,7 @@
         <v>19</v>
       </c>
       <c r="K75" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>64</v>
@@ -5409,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>309</v>
       </c>
@@ -5435,7 +5464,7 @@
         <v>314</v>
       </c>
       <c r="K76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>64</v>
@@ -5444,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>315</v>
       </c>
@@ -5473,7 +5502,7 @@
         <v>90</v>
       </c>
       <c r="K77" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>64</v>
@@ -5482,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>319</v>
       </c>
@@ -5508,7 +5537,7 @@
         <v>48</v>
       </c>
       <c r="K78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>64</v>
@@ -5517,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>322</v>
       </c>
@@ -5543,7 +5572,7 @@
         <v>326</v>
       </c>
       <c r="K79" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>64</v>
@@ -5552,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>327</v>
       </c>
@@ -5578,7 +5607,7 @@
         <v>48</v>
       </c>
       <c r="K80" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>64</v>
@@ -5587,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>330</v>
       </c>
@@ -5616,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="K81" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>64</v>
@@ -5625,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>334</v>
       </c>
@@ -5651,7 +5680,7 @@
         <v>54</v>
       </c>
       <c r="K82" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>64</v>
@@ -5660,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>338</v>
       </c>
@@ -5689,7 +5718,7 @@
         <v>342</v>
       </c>
       <c r="K83" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>64</v>
@@ -5698,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>343</v>
       </c>
@@ -5724,7 +5753,7 @@
         <v>48</v>
       </c>
       <c r="K84" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>64</v>
@@ -5733,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>346</v>
       </c>
@@ -5756,7 +5785,7 @@
         <v>90</v>
       </c>
       <c r="K85" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>64</v>
@@ -5765,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>349</v>
       </c>
@@ -5794,7 +5823,7 @@
         <v>342</v>
       </c>
       <c r="K86" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>64</v>
@@ -5803,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>353</v>
       </c>
@@ -5829,7 +5858,7 @@
         <v>63</v>
       </c>
       <c r="K87" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>64</v>
@@ -5838,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>356</v>
       </c>
@@ -5867,7 +5896,7 @@
         <v>90</v>
       </c>
       <c r="K88" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>64</v>
@@ -5876,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>359</v>
       </c>
@@ -5902,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="K89" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>64</v>
@@ -5911,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>362</v>
       </c>
@@ -5934,7 +5963,7 @@
         <v>19</v>
       </c>
       <c r="K90" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>64</v>
@@ -5943,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
@@ -5969,7 +5998,7 @@
         <v>48</v>
       </c>
       <c r="K91" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>64</v>
@@ -5978,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>369</v>
       </c>
@@ -6004,7 +6033,7 @@
         <v>69</v>
       </c>
       <c r="K92" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>64</v>
@@ -6013,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>372</v>
       </c>
@@ -6039,7 +6068,7 @@
         <v>19</v>
       </c>
       <c r="K93" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>64</v>
@@ -6048,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>375</v>
       </c>
@@ -6074,7 +6103,7 @@
         <v>19</v>
       </c>
       <c r="K94" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>64</v>
@@ -6083,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>378</v>
       </c>
@@ -6106,7 +6135,7 @@
         <v>19</v>
       </c>
       <c r="K95" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>64</v>
@@ -6115,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>381</v>
       </c>
@@ -6144,7 +6173,7 @@
         <v>19</v>
       </c>
       <c r="K96" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>64</v>
@@ -6153,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>386</v>
       </c>
@@ -6182,7 +6211,7 @@
         <v>19</v>
       </c>
       <c r="K97" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>64</v>
@@ -6191,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>390</v>
       </c>
@@ -6217,7 +6246,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>64</v>
@@ -6226,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>394</v>
       </c>
@@ -6252,7 +6281,7 @@
         <v>19</v>
       </c>
       <c r="K99" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>64</v>
@@ -6261,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>397</v>
       </c>
@@ -6287,7 +6316,7 @@
         <v>48</v>
       </c>
       <c r="K100" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>64</v>
@@ -6296,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
@@ -6319,7 +6348,7 @@
         <v>403</v>
       </c>
       <c r="K101" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>64</v>
@@ -6328,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>404</v>
       </c>
@@ -6354,7 +6383,7 @@
         <v>48</v>
       </c>
       <c r="K102" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>64</v>
@@ -6363,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>407</v>
       </c>
@@ -6389,7 +6418,7 @@
         <v>48</v>
       </c>
       <c r="K103" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>64</v>
@@ -6398,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>410</v>
       </c>
@@ -6430,7 +6459,7 @@
         <v>415</v>
       </c>
       <c r="K104" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>64</v>
@@ -6439,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>416</v>
       </c>
@@ -6471,16 +6500,16 @@
         <v>421</v>
       </c>
       <c r="K105" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L105" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M105" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>422</v>
       </c>
@@ -6503,7 +6532,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>64</v>
@@ -6512,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>425</v>
       </c>
@@ -6535,7 +6564,7 @@
         <v>19</v>
       </c>
       <c r="K107" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>32</v>
@@ -6544,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>428</v>
       </c>
@@ -6573,7 +6602,7 @@
         <v>19</v>
       </c>
       <c r="K108" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>64</v>
@@ -6582,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>432</v>
       </c>
@@ -6614,7 +6643,7 @@
         <v>435</v>
       </c>
       <c r="K109" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>64</v>
@@ -6623,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>436</v>
       </c>
@@ -6649,7 +6678,7 @@
         <v>54</v>
       </c>
       <c r="K110" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>64</v>
@@ -6658,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>439</v>
       </c>
@@ -6687,7 +6716,7 @@
         <v>19</v>
       </c>
       <c r="K111" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>64</v>
@@ -6696,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>444</v>
       </c>
@@ -6725,7 +6754,7 @@
         <v>19</v>
       </c>
       <c r="K112" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>64</v>
@@ -6734,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>447</v>
       </c>
@@ -6763,7 +6792,7 @@
         <v>19</v>
       </c>
       <c r="K113" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>64</v>
@@ -6772,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>451</v>
       </c>
@@ -6798,7 +6827,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>64</v>
@@ -6807,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>454</v>
       </c>
@@ -6830,7 +6859,7 @@
         <v>54</v>
       </c>
       <c r="K115" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>457</v>
@@ -6839,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>458</v>
       </c>
@@ -6868,7 +6897,7 @@
         <v>19</v>
       </c>
       <c r="K116" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>32</v>
@@ -6877,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>463</v>
       </c>
@@ -6900,7 +6929,7 @@
         <v>19</v>
       </c>
       <c r="K117" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>64</v>
@@ -6909,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>466</v>
       </c>
@@ -6932,7 +6961,7 @@
         <v>19</v>
       </c>
       <c r="K118" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>64</v>
@@ -6941,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>469</v>
       </c>
@@ -6970,7 +6999,7 @@
         <v>19</v>
       </c>
       <c r="K119" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>64</v>
@@ -6979,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>472</v>
       </c>
@@ -7008,7 +7037,7 @@
         <v>19</v>
       </c>
       <c r="K120" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>64</v>
@@ -7017,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>476</v>
       </c>
@@ -7046,16 +7075,16 @@
         <v>19</v>
       </c>
       <c r="K121" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L121" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M121" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>480</v>
       </c>
@@ -7081,7 +7110,7 @@
         <v>48</v>
       </c>
       <c r="K122" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>64</v>
@@ -7090,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>483</v>
       </c>
@@ -7116,16 +7145,16 @@
         <v>54</v>
       </c>
       <c r="K123" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L123" s="4">
-        <v>45665.0</v>
+        <v>45665</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>486</v>
       </c>
@@ -7157,7 +7186,7 @@
         <v>490</v>
       </c>
       <c r="K124" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>64</v>
@@ -7166,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>491</v>
       </c>
@@ -7195,16 +7224,16 @@
         <v>19</v>
       </c>
       <c r="K125" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L125" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>496</v>
       </c>
@@ -7233,7 +7262,7 @@
         <v>19</v>
       </c>
       <c r="K126" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>64</v>
@@ -7242,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>499</v>
       </c>
@@ -7268,7 +7297,7 @@
         <v>504</v>
       </c>
       <c r="K127" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>64</v>
@@ -7277,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>505</v>
       </c>
@@ -7306,7 +7335,7 @@
         <v>19</v>
       </c>
       <c r="K128" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>64</v>
@@ -7315,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>510</v>
       </c>
@@ -7341,7 +7370,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>64</v>
@@ -7350,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>513</v>
       </c>
@@ -7373,7 +7402,7 @@
         <v>19</v>
       </c>
       <c r="K130" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>64</v>
@@ -7382,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>516</v>
       </c>
@@ -7411,7 +7440,7 @@
         <v>19</v>
       </c>
       <c r="K131" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>64</v>
@@ -7420,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>520</v>
       </c>
@@ -7449,7 +7478,7 @@
         <v>19</v>
       </c>
       <c r="K132" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>64</v>
@@ -7458,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>524</v>
       </c>
@@ -7487,7 +7516,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>64</v>
@@ -7496,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>527</v>
       </c>
@@ -7525,7 +7554,7 @@
         <v>19</v>
       </c>
       <c r="K134" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>64</v>
@@ -7534,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>531</v>
       </c>
@@ -7563,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>64</v>
@@ -7572,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>536</v>
       </c>
@@ -7598,7 +7627,7 @@
         <v>48</v>
       </c>
       <c r="K136" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>64</v>
@@ -7607,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>540</v>
       </c>
@@ -7633,7 +7662,7 @@
         <v>48</v>
       </c>
       <c r="K137" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>64</v>
@@ -7642,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>543</v>
       </c>
@@ -7668,7 +7697,7 @@
         <v>547</v>
       </c>
       <c r="K138" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>64</v>
@@ -7677,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>548</v>
       </c>
@@ -7703,7 +7732,7 @@
         <v>19</v>
       </c>
       <c r="K139" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>64</v>
@@ -7712,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>551</v>
       </c>
@@ -7738,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="K140" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>64</v>
@@ -7747,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>554</v>
       </c>
@@ -7776,7 +7805,7 @@
         <v>560</v>
       </c>
       <c r="K141" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>64</v>
@@ -7785,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>561</v>
       </c>
@@ -7808,7 +7837,7 @@
         <v>54</v>
       </c>
       <c r="K142" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>32</v>
@@ -7817,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>565</v>
       </c>
@@ -7843,16 +7872,16 @@
         <v>54</v>
       </c>
       <c r="K143" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L143" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>568</v>
       </c>
@@ -7881,7 +7910,7 @@
         <v>19</v>
       </c>
       <c r="K144" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>64</v>
@@ -7890,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>574</v>
       </c>
@@ -7916,7 +7945,7 @@
         <v>48</v>
       </c>
       <c r="K145" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>64</v>
@@ -7925,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>577</v>
       </c>
@@ -7951,7 +7980,7 @@
         <v>48</v>
       </c>
       <c r="K146" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>64</v>
@@ -7960,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>580</v>
       </c>
@@ -7986,7 +8015,7 @@
         <v>19</v>
       </c>
       <c r="K147" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>64</v>
@@ -7995,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>583</v>
       </c>
@@ -8021,7 +8050,7 @@
         <v>587</v>
       </c>
       <c r="K148" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>64</v>
@@ -8030,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>588</v>
       </c>
@@ -8056,7 +8085,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>64</v>
@@ -8065,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>591</v>
       </c>
@@ -8091,7 +8120,7 @@
         <v>54</v>
       </c>
       <c r="K150" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>64</v>
@@ -8100,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>595</v>
       </c>
@@ -8126,7 +8155,7 @@
         <v>19</v>
       </c>
       <c r="K151" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>64</v>
@@ -8135,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>598</v>
       </c>
@@ -8158,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="K152" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>64</v>
@@ -8167,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>601</v>
       </c>
@@ -8193,7 +8222,7 @@
         <v>54</v>
       </c>
       <c r="K153" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>64</v>
@@ -8202,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -8231,7 +8260,7 @@
         <v>610</v>
       </c>
       <c r="K154" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>64</v>
@@ -8240,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>611</v>
       </c>
@@ -8266,7 +8295,7 @@
         <v>54</v>
       </c>
       <c r="K155" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>64</v>
@@ -8275,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>614</v>
       </c>
@@ -8304,7 +8333,7 @@
         <v>19</v>
       </c>
       <c r="K156" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>64</v>
@@ -8313,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>617</v>
       </c>
@@ -8339,16 +8368,16 @@
         <v>621</v>
       </c>
       <c r="K157" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L157" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>622</v>
       </c>
@@ -8374,7 +8403,7 @@
         <v>54</v>
       </c>
       <c r="K158" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>64</v>
@@ -8383,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>626</v>
       </c>
@@ -8412,7 +8441,7 @@
         <v>197</v>
       </c>
       <c r="K159" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>64</v>
@@ -8421,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>629</v>
       </c>
@@ -8450,7 +8479,7 @@
         <v>197</v>
       </c>
       <c r="K160" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>64</v>
@@ -8459,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>632</v>
       </c>
@@ -8488,7 +8517,7 @@
         <v>54</v>
       </c>
       <c r="K161" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>64</v>
@@ -8497,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>635</v>
       </c>
@@ -8523,7 +8552,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>64</v>
@@ -8532,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>638</v>
       </c>
@@ -8561,16 +8590,16 @@
         <v>197</v>
       </c>
       <c r="K163" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L163" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M163" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>643</v>
       </c>
@@ -8596,7 +8625,7 @@
         <v>54</v>
       </c>
       <c r="K164" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>64</v>
@@ -8605,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>647</v>
       </c>
@@ -8634,16 +8663,16 @@
         <v>54</v>
       </c>
       <c r="K165" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L165" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M165" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>650</v>
       </c>
@@ -8672,7 +8701,7 @@
         <v>197</v>
       </c>
       <c r="K166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>64</v>
@@ -8681,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>653</v>
       </c>
@@ -8707,7 +8736,7 @@
         <v>19</v>
       </c>
       <c r="K167" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>64</v>
@@ -8716,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>657</v>
       </c>
@@ -8742,7 +8771,7 @@
         <v>54</v>
       </c>
       <c r="K168" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>64</v>
@@ -8751,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>661</v>
       </c>
@@ -8777,16 +8806,16 @@
         <v>19</v>
       </c>
       <c r="K169" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L169" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M169" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>665</v>
       </c>
@@ -8812,16 +8841,16 @@
         <v>197</v>
       </c>
       <c r="K170" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L170" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M170" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>669</v>
       </c>
@@ -8847,16 +8876,16 @@
         <v>673</v>
       </c>
       <c r="K171" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="L171" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M171" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>674</v>
       </c>
@@ -8882,16 +8911,16 @@
         <v>48</v>
       </c>
       <c r="K172" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L172" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M172" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>677</v>
       </c>
@@ -8917,7 +8946,7 @@
         <v>19</v>
       </c>
       <c r="K173" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>64</v>
@@ -8926,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>680</v>
       </c>
@@ -8952,16 +8981,16 @@
         <v>685</v>
       </c>
       <c r="K174" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L174" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M174" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>686</v>
       </c>
@@ -8987,7 +9016,7 @@
         <v>54</v>
       </c>
       <c r="K175" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>64</v>
@@ -8996,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>689</v>
       </c>
@@ -9025,16 +9054,16 @@
         <v>197</v>
       </c>
       <c r="K176" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L176" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M176" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>692</v>
       </c>
@@ -9060,16 +9089,16 @@
         <v>697</v>
       </c>
       <c r="K177" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L177" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M177" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>698</v>
       </c>
@@ -9098,16 +9127,16 @@
         <v>197</v>
       </c>
       <c r="K178" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L178" s="4">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="M178" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>701</v>
       </c>
@@ -9133,7 +9162,7 @@
         <v>19</v>
       </c>
       <c r="K179" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>64</v>
@@ -9142,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>704</v>
       </c>
@@ -9168,7 +9197,7 @@
         <v>48</v>
       </c>
       <c r="K180" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>80</v>
@@ -9177,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>707</v>
       </c>
@@ -9200,7 +9229,7 @@
         <v>48</v>
       </c>
       <c r="K181" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>26</v>
@@ -9209,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>710</v>
       </c>
@@ -9232,7 +9261,7 @@
         <v>48</v>
       </c>
       <c r="K182" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>64</v>
@@ -9241,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>713</v>
       </c>
@@ -9264,7 +9293,7 @@
         <v>48</v>
       </c>
       <c r="K183" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>64</v>
@@ -9273,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>716</v>
       </c>
@@ -9296,7 +9325,7 @@
         <v>48</v>
       </c>
       <c r="K184" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>64</v>
@@ -9305,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>719</v>
       </c>
@@ -9331,7 +9360,7 @@
         <v>19</v>
       </c>
       <c r="K185" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>64</v>
@@ -9340,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>723</v>
       </c>
@@ -9366,7 +9395,7 @@
         <v>314</v>
       </c>
       <c r="K186" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>64</v>
@@ -9375,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>727</v>
       </c>
@@ -9401,7 +9430,7 @@
         <v>19</v>
       </c>
       <c r="K187" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>64</v>
@@ -9410,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>730</v>
       </c>
@@ -9436,7 +9465,7 @@
         <v>733</v>
       </c>
       <c r="K188" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>64</v>
@@ -9445,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>734</v>
       </c>
@@ -9474,7 +9503,7 @@
         <v>197</v>
       </c>
       <c r="K189" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>64</v>
@@ -9483,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>737</v>
       </c>
@@ -9509,7 +9538,7 @@
         <v>314</v>
       </c>
       <c r="K190" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>64</v>
@@ -9518,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>740</v>
       </c>
@@ -9544,7 +9573,7 @@
         <v>314</v>
       </c>
       <c r="K191" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>64</v>
@@ -9553,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>743</v>
       </c>
@@ -9576,7 +9605,7 @@
         <v>314</v>
       </c>
       <c r="K192" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>746</v>
@@ -9585,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>747</v>
       </c>
@@ -9611,7 +9640,7 @@
         <v>19</v>
       </c>
       <c r="K193" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>750</v>
@@ -9620,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>751</v>
       </c>
@@ -9643,7 +9672,7 @@
         <v>314</v>
       </c>
       <c r="K194" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>64</v>
@@ -9652,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>754</v>
       </c>
@@ -9678,7 +9707,7 @@
         <v>48</v>
       </c>
       <c r="K195" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>64</v>
@@ -9687,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>758</v>
       </c>
@@ -9713,7 +9742,7 @@
         <v>314</v>
       </c>
       <c r="K196" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>32</v>
@@ -9722,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>761</v>
       </c>
@@ -9748,7 +9777,7 @@
         <v>764</v>
       </c>
       <c r="K197" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>64</v>
@@ -9757,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>765</v>
       </c>
@@ -9780,7 +9809,7 @@
         <v>314</v>
       </c>
       <c r="K198" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>746</v>
@@ -9789,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>768</v>
       </c>
@@ -9815,7 +9844,7 @@
         <v>771</v>
       </c>
       <c r="K199" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>64</v>
@@ -9824,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>772</v>
       </c>
@@ -9847,7 +9876,7 @@
         <v>314</v>
       </c>
       <c r="K200" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>775</v>
@@ -9856,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>776</v>
       </c>
@@ -9882,7 +9911,7 @@
         <v>771</v>
       </c>
       <c r="K201" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L201" s="2" t="s">
         <v>64</v>
@@ -9891,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>779</v>
       </c>
@@ -9914,7 +9943,7 @@
         <v>314</v>
       </c>
       <c r="K202" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>49</v>
@@ -9923,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>782</v>
       </c>
@@ -9952,7 +9981,7 @@
         <v>19</v>
       </c>
       <c r="K203" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>64</v>
@@ -9961,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>787</v>
       </c>
@@ -9987,7 +10016,7 @@
         <v>314</v>
       </c>
       <c r="K204" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>32</v>
@@ -9996,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>790</v>
       </c>
@@ -10019,7 +10048,7 @@
         <v>771</v>
       </c>
       <c r="K205" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>64</v>
@@ -10028,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>793</v>
       </c>
@@ -10051,7 +10080,7 @@
         <v>314</v>
       </c>
       <c r="K206" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>64</v>
@@ -10060,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>796</v>
       </c>
@@ -10086,7 +10115,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>64</v>
@@ -10095,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>799</v>
       </c>
@@ -10118,7 +10147,7 @@
         <v>314</v>
       </c>
       <c r="K208" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>802</v>
@@ -10127,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>803</v>
       </c>
@@ -10153,7 +10182,7 @@
         <v>314</v>
       </c>
       <c r="K209" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>64</v>
@@ -10162,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>807</v>
       </c>
@@ -10185,7 +10214,7 @@
         <v>314</v>
       </c>
       <c r="K210" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>810</v>
@@ -10194,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>811</v>
       </c>
@@ -10217,7 +10246,7 @@
         <v>54</v>
       </c>
       <c r="K211" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>64</v>
@@ -10226,800 +10255,799 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$211"/>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <autoFilter ref="A1:M211" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>